--- a/wd-admin-web/src/main/webapp/static/upload/库存档案.xlsx
+++ b/wd-admin-web/src/main/webapp/static/upload/库存档案.xlsx
@@ -4,22 +4,28 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13650" tabRatio="660"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="660"/>
   </bookViews>
   <sheets>
     <sheet name="档案格式调整" sheetId="12" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">档案格式调整!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">档案格式调整!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>货号</t>
+  </si>
+  <si>
+    <t>尺码</t>
+  </si>
+  <si>
+    <t>数量</t>
   </si>
   <si>
     <t>折扣</t>
@@ -30,16 +36,28 @@
   <si>
     <t>渠道价</t>
   </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="20">
@@ -58,7 +76,67 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -76,16 +154,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color indexed="56"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -99,34 +170,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -137,45 +194,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="24">
     <fill>
@@ -186,133 +204,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor indexed="36"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,6 +359,59 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color indexed="63"/>
       </left>
@@ -352,15 +423,6 @@
       </top>
       <bottom style="double">
         <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -383,8 +445,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="62"/>
+      <bottom style="medium">
+        <color indexed="30"/>
       </bottom>
       <diagonal/>
     </border>
@@ -403,50 +465,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -455,10 +473,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -467,133 +485,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -702,7 +720,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -981,34 +999,80 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="1"/>
-    <col min="3" max="3" width="10" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="3"/>
+    <col min="1" max="3" width="15.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="1"/>
+    <col min="5" max="5" width="10.75" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:4">
+    <row r="1" ht="20" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
